--- a/modules/purchase/uploads/file_sample/Sample_import_commodity_file_en.xlsx
+++ b/modules/purchase/uploads/file_sample/Sample_import_commodity_file_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GTSS_BOD\SourceCode\Web\perfexsoft\modules\purchase\uploads\file_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GTSS_BOD\SourceCode\Web\dev_branch\perfexsoft\modules\purchase\uploads\file_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E3246-848F-452E-8388-DF3215DC50D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56541CA5-877A-4C96-94E0-E8527DABF631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sku Code</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Sale price</t>
+  </si>
+  <si>
+    <t>Tax 2</t>
   </si>
 </sst>
 </file>
@@ -427,19 +430,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="33.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="13" max="13" width="26.85546875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -475,6 +479,9 @@
       </c>
       <c r="L1" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
